--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>C1qa</t>
+  </si>
+  <si>
+    <t>Cspg4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>C1qa</t>
-  </si>
-  <si>
-    <t>Cspg4</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.247851</v>
+        <v>0.01691733333333333</v>
       </c>
       <c r="H2">
-        <v>9.743553</v>
+        <v>0.050752</v>
       </c>
       <c r="I2">
-        <v>0.9948182132371822</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9948182132371823</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.403560666666667</v>
+        <v>1.366995666666667</v>
       </c>
       <c r="N2">
-        <v>7.210682</v>
+        <v>4.100987</v>
       </c>
       <c r="O2">
-        <v>0.06725806189087252</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="P2">
-        <v>0.06725806189087251</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="Q2">
-        <v>7.806406914794001</v>
+        <v>0.02312592135822222</v>
       </c>
       <c r="R2">
-        <v>70.25766223314601</v>
+        <v>0.208133292224</v>
       </c>
       <c r="S2">
-        <v>0.06690954495607362</v>
+        <v>0.02653821474268573</v>
       </c>
       <c r="T2">
-        <v>0.06690954495607361</v>
+        <v>0.02653821474268573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.247851</v>
+        <v>0.01691733333333333</v>
       </c>
       <c r="H3">
-        <v>9.743553</v>
+        <v>0.050752</v>
       </c>
       <c r="I3">
-        <v>0.9948182132371822</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9948182132371823</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.534961</v>
       </c>
       <c r="O3">
-        <v>0.3594371228547256</v>
+        <v>0.2493665720274216</v>
       </c>
       <c r="P3">
-        <v>0.3594371228547256</v>
+        <v>0.2493665720274215</v>
       </c>
       <c r="Q3">
-        <v>41.718603872937</v>
+        <v>0.2173029267413333</v>
       </c>
       <c r="R3">
-        <v>375.467434856433</v>
+        <v>1.955726340672</v>
       </c>
       <c r="S3">
-        <v>0.3575745963294517</v>
+        <v>0.2493665720274216</v>
       </c>
       <c r="T3">
-        <v>0.3575745963294517</v>
+        <v>0.2493665720274215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.247851</v>
+        <v>0.01691733333333333</v>
       </c>
       <c r="H4">
-        <v>9.743553</v>
+        <v>0.050752</v>
       </c>
       <c r="I4">
-        <v>0.9948182132371822</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9948182132371823</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.48784733333333</v>
+        <v>37.298478</v>
       </c>
       <c r="N4">
-        <v>61.463542</v>
+        <v>111.895434</v>
       </c>
       <c r="O4">
-        <v>0.573304815254402</v>
+        <v>0.7240952132298927</v>
       </c>
       <c r="P4">
-        <v>0.5733048152544019</v>
+        <v>0.7240952132298926</v>
       </c>
       <c r="Q4">
-        <v>66.54147544941399</v>
+        <v>0.6309907851519999</v>
       </c>
       <c r="R4">
-        <v>598.873279044726</v>
+        <v>5.678917066367999</v>
       </c>
       <c r="S4">
-        <v>0.5703340719516571</v>
+        <v>0.7240952132298927</v>
       </c>
       <c r="T4">
-        <v>0.570334071951657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.01691733333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.050752</v>
-      </c>
-      <c r="I5">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="J5">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>2.403560666666667</v>
-      </c>
-      <c r="N5">
-        <v>7.210682</v>
-      </c>
-      <c r="O5">
-        <v>0.06725806189087252</v>
-      </c>
-      <c r="P5">
-        <v>0.06725806189087251</v>
-      </c>
-      <c r="Q5">
-        <v>0.04066183698488889</v>
-      </c>
-      <c r="R5">
-        <v>0.365956532864</v>
-      </c>
-      <c r="S5">
-        <v>0.0003485169347989022</v>
-      </c>
-      <c r="T5">
-        <v>0.0003485169347989022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01691733333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.050752</v>
-      </c>
-      <c r="I6">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="J6">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>12.844987</v>
-      </c>
-      <c r="N6">
-        <v>38.534961</v>
-      </c>
-      <c r="O6">
-        <v>0.3594371228547256</v>
-      </c>
-      <c r="P6">
-        <v>0.3594371228547256</v>
-      </c>
-      <c r="Q6">
-        <v>0.2173029267413333</v>
-      </c>
-      <c r="R6">
-        <v>1.955726340672</v>
-      </c>
-      <c r="S6">
-        <v>0.001862526525273925</v>
-      </c>
-      <c r="T6">
-        <v>0.001862526525273925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01691733333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.050752</v>
-      </c>
-      <c r="I7">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="J7">
-        <v>0.00518178676281778</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>20.48784733333333</v>
-      </c>
-      <c r="N7">
-        <v>61.463542</v>
-      </c>
-      <c r="O7">
-        <v>0.573304815254402</v>
-      </c>
-      <c r="P7">
-        <v>0.5733048152544019</v>
-      </c>
-      <c r="Q7">
-        <v>0.3465997426204444</v>
-      </c>
-      <c r="R7">
-        <v>3.119397683584</v>
-      </c>
-      <c r="S7">
-        <v>0.002970743302744953</v>
-      </c>
-      <c r="T7">
-        <v>0.002970743302744953</v>
+        <v>0.7240952132298926</v>
       </c>
     </row>
   </sheetData>
